--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Monday</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Week2</t>
+  </si>
+  <si>
+    <t>Meetings:</t>
+  </si>
+  <si>
+    <t>10.30 Init</t>
+  </si>
+  <si>
+    <t>2:00 technical</t>
+  </si>
+  <si>
+    <t>3-4 Mike</t>
   </si>
 </sst>
 </file>
@@ -526,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +694,20 @@
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Monday</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>10.30-&gt; 5</t>
-  </si>
-  <si>
     <t>Week2</t>
   </si>
   <si>
@@ -88,14 +85,48 @@
   </si>
   <si>
     <t>3-4 Mike</t>
+  </si>
+  <si>
+    <t>10.30-&gt; 4</t>
+  </si>
+  <si>
+    <t>Meeting 1</t>
+  </si>
+  <si>
+    <t>Meeting 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed opening of project
+Hours required
+Slight changes to spec
+What data is required </t>
+  </si>
+  <si>
+    <t>Technical side of project
+AngularJS for part1 with c# being involved as well
+Met with other technical personal in the staff</t>
+  </si>
+  <si>
+    <t>9-&gt;5</t>
+  </si>
+  <si>
+    <t>9-&gt;12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -256,6 +287,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,15 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J20"/>
+  <dimension ref="A4:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -673,11 +714,17 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
@@ -696,74 +743,96 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43325</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>43325</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Monday</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>9-&gt;12</t>
+  </si>
+  <si>
+    <t>4-&gt;5</t>
+  </si>
+  <si>
+    <t>Meeting 3</t>
+  </si>
+  <si>
+    <t>Meeting 4</t>
+  </si>
+  <si>
+    <t>10.30 -&gt; Craig, Lorna</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -268,11 +280,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -294,6 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J31"/>
+  <dimension ref="A4:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,10 +755,16 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
@@ -761,6 +789,9 @@
       </c>
       <c r="D16" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,6 +861,14 @@
       <c r="A31" t="s">
         <v>18</v>
       </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Monday</t>
   </si>
@@ -123,6 +123,17 @@
   </si>
   <si>
     <t>10.30 -&gt; Craig, Lorna</t>
+  </si>
+  <si>
+    <t>10-&gt;12</t>
+  </si>
+  <si>
+    <t>Discussed final proposal with Jonty
+What is required next week
+Start readding for methadologies report</t>
+  </si>
+  <si>
+    <t>Discussion about TAS team where everyone was at and what people are doing</t>
   </si>
 </sst>
 </file>
@@ -293,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -316,6 +327,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +622,8 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,7 +764,9 @@
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
     </row>
@@ -782,6 +801,9 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
@@ -793,6 +815,9 @@
       <c r="F16" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="G16" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
@@ -800,6 +825,12 @@
       </c>
       <c r="D17" s="16" t="s">
         <v>26</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" sheetId="2" r:id="rId2"/>
+    <sheet name="Week2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Monday</t>
   </si>
@@ -134,6 +136,35 @@
   </si>
   <si>
     <t>Discussion about TAS team where everyone was at and what people are doing</t>
+  </si>
+  <si>
+    <t>Week1 Totals</t>
+  </si>
+  <si>
+    <t>6-&gt;8</t>
+  </si>
+  <si>
+    <t>Meeting 5</t>
+  </si>
+  <si>
+    <t>9-&gt;3.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed WebServices
+How the structure of the User Interface is to look
+</t>
+  </si>
+  <si>
+    <t>Meeting 6</t>
+  </si>
+  <si>
+    <t>Discussion with Jackson as to how to set up SOAPUI as well as a webservices that I can play around with</t>
+  </si>
+  <si>
+    <t>Meeting 7</t>
+  </si>
+  <si>
+    <t>9-&gt;4</t>
   </si>
 </sst>
 </file>
@@ -304,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -331,6 +362,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J33"/>
+  <dimension ref="A4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,8 +660,8 @@
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -655,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -680,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -709,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>16</v>
       </c>
@@ -717,188 +750,362 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
         <v>43318</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+      <c r="L7">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="9" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+    <row r="12" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
         <v>43325</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="15" t="s">
-        <v>31</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="E10" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="E12" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Monday</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>9-&gt;4</t>
+  </si>
+  <si>
+    <t>Got data structures from Lorna with regards to the Tourplan Webservices</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -364,6 +367,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1005,13 +1009,14 @@
   <dimension ref="B3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1060,9 @@
       <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1097,6 +1104,9 @@
       <c r="E10" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="F10" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E11" s="15" t="s">

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Week1" sheetId="2" r:id="rId2"/>
-    <sheet name="Week2" sheetId="3" r:id="rId3"/>
+    <sheet name="Week1" sheetId="2" r:id="rId1"/>
+    <sheet name="Week2" sheetId="3" r:id="rId2"/>
+    <sheet name="Week3" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall BurnDown" sheetId="5" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Monday</t>
   </si>
@@ -168,6 +170,30 @@
   </si>
   <si>
     <t>Got data structures from Lorna with regards to the Tourplan Webservices</t>
+  </si>
+  <si>
+    <t>2-&gt;5</t>
+  </si>
+  <si>
+    <t>Week3:</t>
+  </si>
+  <si>
+    <t>Meeting 8 2.30</t>
+  </si>
+  <si>
+    <t>Meeting 9 3.30</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Project time remaining:</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -648,10 +674,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>43318</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+      <c r="L7">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>43325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="E12" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>43332</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>288-C20</f>
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>E7/288</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B4:B19)</f>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C4:C19)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,271 +1507,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>43318</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="L7">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="240" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>43325</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="E10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="E12" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Monday</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Course</t>
-  </si>
-  <si>
-    <t>8-&gt;5</t>
-  </si>
-  <si>
-    <t>8-&gt;12</t>
   </si>
   <si>
     <t>6-&gt;7</t>
@@ -194,6 +188,17 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet with </t>
+  </si>
+  <si>
+    <t>Talked with john about options going forward. 
+- Search capability
+- How many australian calls
+- Time trials
+- $$ Cost to map goata
+- What do they need in order to map for us</t>
   </si>
 </sst>
 </file>
@@ -364,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -394,6 +399,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +696,7 @@
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3" t="s">
@@ -713,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -724,19 +732,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="10"/>
@@ -749,21 +757,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -771,47 +779,47 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D11" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="240" x14ac:dyDescent="0.25">
       <c r="D12" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +845,7 @@
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
@@ -870,19 +878,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
@@ -895,19 +903,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="11"/>
@@ -917,36 +925,36 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E11" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="E12" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -959,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +984,7 @@
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
@@ -1001,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,8 +1019,12 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1035,21 +1047,26 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1060,10 +1077,12 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1154,15 +1173,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1198,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,7 +1229,7 @@
         <v>246</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1241,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,7 +1301,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <f>SUM(B4:B19)</f>
@@ -1303,7 +1322,7 @@
   <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,24 +1368,24 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,25 +1393,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="J7" s="2">
         <v>18</v>
@@ -1400,7 +1419,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="12">
         <v>46</v>

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Monday</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meet with </t>
   </si>
   <si>
     <t>Talked with john about options going forward. 
@@ -199,6 +196,21 @@
 - Time trials
 - $$ Cost to map goata
 - What do they need in order to map for us</t>
+  </si>
+  <si>
+    <t>9-&gt;11</t>
+  </si>
+  <si>
+    <t>11-&gt;5</t>
+  </si>
+  <si>
+    <t>Meeting 10</t>
+  </si>
+  <si>
+    <t>Meet with TAS about whats going on for the week</t>
+  </si>
+  <si>
+    <t>Met with John, Lorna, Craig about direction of the project</t>
   </si>
 </sst>
 </file>
@@ -369,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -402,6 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +981,7 @@
   <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,9 +1038,15 @@
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
@@ -1037,9 +1056,15 @@
         <v>8</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1052,6 +1077,9 @@
       <c r="C8" s="15" t="s">
         <v>46</v>
       </c>
+      <c r="F8" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1087,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,7 +1112,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>

--- a/Schedule_WorkTime.xlsx
+++ b/Schedule_WorkTime.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="2" r:id="rId1"/>
     <sheet name="Week2" sheetId="3" r:id="rId2"/>
     <sheet name="Week3" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall BurnDown" sheetId="5" r:id="rId4"/>
-    <sheet name="Template" sheetId="1" r:id="rId5"/>
+    <sheet name="Week4" sheetId="6" r:id="rId4"/>
+    <sheet name="Overall BurnDown" sheetId="5" r:id="rId5"/>
+    <sheet name="Template" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Monday</t>
   </si>
@@ -211,6 +212,9 @@
   </si>
   <si>
     <t>Met with John, Lorna, Craig about direction of the project</t>
+  </si>
+  <si>
+    <t>9-&gt;</t>
   </si>
 </sst>
 </file>
@@ -980,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1053,9 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1068,7 +1074,10 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <f>6+3+1</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1083,7 +1092,10 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12">
+        <f>J6+J7</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -1202,158 +1214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <f>288-C20</f>
-        <v>246</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f>E7/288</f>
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B4:B19)</f>
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C4:C19)</f>
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,62 +1263,34 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="1">
-        <v>25</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2">
-        <v>18</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12">
-        <v>46</v>
-      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1555,6 +1391,370 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>288-C20</f>
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>E7/288</f>
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B4:B19)</f>
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C4:C19)</f>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>